--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_201.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_201.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>TownePlace Suites Laplace</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>Laplace</t>
   </si>
   <si>
@@ -58,78 +136,6 @@
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -500,34 +506,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>65344</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70068</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -552,76 +577,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" t="s">
         <v>33</v>
       </c>
-      <c r="V1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="W1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="X1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E2" t="n">
+        <v>70068</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_201.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_201.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,652 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/14/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r594582204-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40267</t>
+  </si>
+  <si>
+    <t>10632683</t>
+  </si>
+  <si>
+    <t>594582204</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>awsome stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My stay was a great experience. Service was great, room clean and the bed was comfortable . Staff was very helpful also. I Would stay again when I am driving through Laplace. I would also refer this place to my friends. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r581454732-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>581454732</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>Clean, plenty of space, electrical outlets, decent wifi</t>
+  </si>
+  <si>
+    <t>This hotel opened in 2016, so it still had a relatively new look and feel to it. Our room was clean, with a full kitchen and utensils, sofa, and plenty of closet space. A nice walk in shower. The breakfast was just okay with fried eggs, sausage and canadian bacon that had very little flavor. Cheerios, yogurt, breads, etc. Clean breakfast area, kept well stocked. Now, this is not a scenic location: off the highway next to a huge truck stop.  a long defunct shoney's in front, a view of the back of a Best Western. on the pool side is a swamp. It is a safe area. There is also a miles long walking or biking trail behind it that you might want to explore. plenty of fast food places and gas station convenience stores handy, a short drive to Airline Highway where you can find nearly anything in LaPlace. We will stay here again because we do not spend a lot of time looking out the hotel windows.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This hotel opened in 2016, so it still had a relatively new look and feel to it. Our room was clean, with a full kitchen and utensils, sofa, and plenty of closet space. A nice walk in shower. The breakfast was just okay with fried eggs, sausage and canadian bacon that had very little flavor. Cheerios, yogurt, breads, etc. Clean breakfast area, kept well stocked. Now, this is not a scenic location: off the highway next to a huge truck stop.  a long defunct shoney's in front, a view of the back of a Best Western. on the pool side is a swamp. It is a safe area. There is also a miles long walking or biking trail behind it that you might want to explore. plenty of fast food places and gas station convenience stores handy, a short drive to Airline Highway where you can find nearly anything in LaPlace. We will stay here again because we do not spend a lot of time looking out the hotel windows.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r575054305-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>575054305</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Nice Property with Very Nice Staff</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel as an alternative to staying New Orleans. It was a good location and the drive in was about 30 minutes. The staff members were friendly and our room was clean and well designed. They were able to replace some hygiene items I forgot and direct me to a place in town for a clothing item. Overall, this was a good visit.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r567469572-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>567469572</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>there is a potential...hopefully</t>
+  </si>
+  <si>
+    <t>..... the property is new and location worked for us...  Other than that, lack of professionalism affected everything.  We stayed Mon - Fri and our room was not cleaned at all.  One day we were told by front desk that you have to "request for room to be cleaned" (I'm sure that's a first for Marriott and corporate will not be happy about that) and of course the next day, a diff front desk person said that's wrong and she assured me she was going to pass this along to GM.  Most of the employees (except Alex at the front desk)  including GM, lacked professionalism, some in their attire, others in their communicating skills or basic job skills.  When you're a hotel guest, you don't wanna hear certain things or see job not done.
+Breakfast...same breakfast every day, seriously?  I wasn't sure if the person working breakfast was lazy or too busy talking to guests etc, but for example,  yogurts were not stocked since Thur 8am, through Friday 7am (breakfast starts at 6am i believe) until I had to ask.  But there were TONS of Eggs, not sure why make so many at a time, when other things were being emptied out and not replenished, as Canadian bacon as well. BTW, it'd be great if hotel got a new, FAST toaster. 
+So, basically, all the negative comments we read from reviews before booking and we chose to ignore, turned out........ the property is new and location worked for us...  Other than that, lack of professionalism affected everything.  We stayed Mon - Fri and our room was not cleaned at all.  One day we were told by front desk that you have to "request for room to be cleaned" (I'm sure that's a first for Marriott and corporate will not be happy about that) and of course the next day, a diff front desk person said that's wrong and she assured me she was going to pass this along to GM.  Most of the employees (except Alex at the front desk)  including GM, lacked professionalism, some in their attire, others in their communicating skills or basic job skills.  When you're a hotel guest, you don't wanna hear certain things or see job not done.Breakfast...same breakfast every day, seriously?  I wasn't sure if the person working breakfast was lazy or too busy talking to guests etc, but for example,  yogurts were not stocked since Thur 8am, through Friday 7am (breakfast starts at 6am i believe) until I had to ask.  But there were TONS of Eggs, not sure why make so many at a time, when other things were being emptied out and not replenished, as Canadian bacon as well. BTW, it'd be great if hotel got a new, FAST toaster. So, basically, all the negative comments we read from reviews before booking and we chose to ignore, turned out to be sadly, the case for us as well.   Disappointment for loyal Marriott members.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Shane L, Front Office Manager at TownePlace Suites Laplace, responded to this reviewResponded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2018</t>
+  </si>
+  <si>
+    <t>..... the property is new and location worked for us...  Other than that, lack of professionalism affected everything.  We stayed Mon - Fri and our room was not cleaned at all.  One day we were told by front desk that you have to "request for room to be cleaned" (I'm sure that's a first for Marriott and corporate will not be happy about that) and of course the next day, a diff front desk person said that's wrong and she assured me she was going to pass this along to GM.  Most of the employees (except Alex at the front desk)  including GM, lacked professionalism, some in their attire, others in their communicating skills or basic job skills.  When you're a hotel guest, you don't wanna hear certain things or see job not done.
+Breakfast...same breakfast every day, seriously?  I wasn't sure if the person working breakfast was lazy or too busy talking to guests etc, but for example,  yogurts were not stocked since Thur 8am, through Friday 7am (breakfast starts at 6am i believe) until I had to ask.  But there were TONS of Eggs, not sure why make so many at a time, when other things were being emptied out and not replenished, as Canadian bacon as well. BTW, it'd be great if hotel got a new, FAST toaster. 
+So, basically, all the negative comments we read from reviews before booking and we chose to ignore, turned out........ the property is new and location worked for us...  Other than that, lack of professionalism affected everything.  We stayed Mon - Fri and our room was not cleaned at all.  One day we were told by front desk that you have to "request for room to be cleaned" (I'm sure that's a first for Marriott and corporate will not be happy about that) and of course the next day, a diff front desk person said that's wrong and she assured me she was going to pass this along to GM.  Most of the employees (except Alex at the front desk)  including GM, lacked professionalism, some in their attire, others in their communicating skills or basic job skills.  When you're a hotel guest, you don't wanna hear certain things or see job not done.Breakfast...same breakfast every day, seriously?  I wasn't sure if the person working breakfast was lazy or too busy talking to guests etc, but for example,  yogurts were not stocked since Thur 8am, through Friday 7am (breakfast starts at 6am i believe) until I had to ask.  But there were TONS of Eggs, not sure why make so many at a time, when other things were being emptied out and not replenished, as Canadian bacon as well. BTW, it'd be great if hotel got a new, FAST toaster. So, basically, all the negative comments we read from reviews before booking and we chose to ignore, turned out to be sadly, the case for us as well.   Disappointment for loyal Marriott members.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r566950661-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>566950661</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>Amazed as it was new and looked very pleasant, host was nice. But the place was disgustingly  dirty , pubic hairs on and around toilet seat in the shower on the floor . Towels had embedded hairs in them and one had a brown stain.  Found one hair under my pillow and one on bedspread. I stayed at 7 Marriotts this week and room 128 at this hotel has been the worst of all. To the point where person who cleans this room should BE REPLACED. Also bedside Lamp near bathroom had a short and would flicker and wobble loosely.  Didn't even want to try breakfast after seeing room filth. MoreShow less</t>
+  </si>
+  <si>
+    <t>Shane L, Front Office Manager at TownePlace Suites Laplace, responded to this reviewResponded March 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2018</t>
+  </si>
+  <si>
+    <t>Amazed as it was new and looked very pleasant, host was nice. But the place was disgustingly  dirty , pubic hairs on and around toilet seat in the shower on the floor . Towels had embedded hairs in them and one had a brown stain.  Found one hair under my pillow and one on bedspread. I stayed at 7 Marriotts this week and room 128 at this hotel has been the worst of all. To the point where person who cleans this room should BE REPLACED. Also bedside Lamp near bathroom had a short and would flicker and wobble loosely.  Didn't even want to try breakfast after seeing room filth. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r563184264-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>563184264</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>as always I only stay at a Marriott Property</t>
+  </si>
+  <si>
+    <t>As a frequent traveler I always stay at Mariott the reason is the staff as here The whole staff from Shane to jasmine well to everyone so many to list they go out of their way to treat me like family.since 2011 till now I have stayed over 2300 nights and never had a problem. So I highly recommend this as well as all others to stay in.Thank you marriott for making my choice of Hotels easyJoe Manning</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r550078330-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>550078330</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>My entire visit was beyond pleasant! The front desk and management team were excellent. Seleana checked us in and she was awesome! Her customer service was on point. I really enjoyed her pleasant smile and conversation.I had an very urgent matter come up and had to use the fax machine. Ronnell and Seleana worked expeditiously to ensure I received and sent my documents in a timely manner.Kendra kept the breakfast area stocked and cleaned. She too was very pleasant and a joy to be around. Happy soon to be birthday Kendra!During my stay, I asked for a extra set of towels, I left out for a while before I was able to get them. Upon my arrival back, Shane had my towels ready for pickup at the front desk.My only suggestion, is that scrambled eggs, grits and cheese be added to the breakfast menu.The property was affordable, clean and close to the Interstate. My family and I really enjoyed our stay and will be back!Rebecca NelsonMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>My entire visit was beyond pleasant! The front desk and management team were excellent. Seleana checked us in and she was awesome! Her customer service was on point. I really enjoyed her pleasant smile and conversation.I had an very urgent matter come up and had to use the fax machine. Ronnell and Seleana worked expeditiously to ensure I received and sent my documents in a timely manner.Kendra kept the breakfast area stocked and cleaned. She too was very pleasant and a joy to be around. Happy soon to be birthday Kendra!During my stay, I asked for a extra set of towels, I left out for a while before I was able to get them. Upon my arrival back, Shane had my towels ready for pickup at the front desk.My only suggestion, is that scrambled eggs, grits and cheese be added to the breakfast menu.The property was affordable, clean and close to the Interstate. My family and I really enjoyed our stay and will be back!Rebecca NelsonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r547687688-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>547687688</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>Looks ARE deceiving...  Stay at your own risk...</t>
+  </si>
+  <si>
+    <t>I was extremely disappointed in this property. I have averaged 150-250 nights per yr for the last 15yrs. I am Platinum with Marriott and Diamond with Hilton. I have NEVER had to go through so much to get my room cleaned. My team and I all would have to lodge MULTIPLE complaints just to get a sink cleaned, shower half-way cleaned, and trash removed. While I don't allow Housekeeping into my room daily, over the course of 3weeks, my bed's linen was changed 3 times. Each time at my request. (No matter what day I let HK in.) That is except for the times. Changed it. I would shave in the am... And when I returned, excess shaving cream and hair would still be in the sink... After 'cleaning'.
+My room had spiders... Dirty dishes would get left. HK would would place dirty dishes in the dishwasher and leave them.
+I had to complain on Twitter to Marriott Corp and the franchise ownership group. Even after that, my room still wasnt cleaned well. One would think this some $20 a night motel. Finally spoke to franchise team. Was promised the room would be cleaned and that I would receive bonus points. Neither occurred. Oh, and this was after 2 weeks of constant complaining. I didn't even bother complaining. I went to Walmart and purchased chemicals and cleaned it myself.
+Needed to do laundry while there... The laundry room was FILTHY....I was extremely disappointed in this property. I have averaged 150-250 nights per yr for the last 15yrs. I am Platinum with Marriott and Diamond with Hilton. I have NEVER had to go through so much to get my room cleaned. My team and I all would have to lodge MULTIPLE complaints just to get a sink cleaned, shower half-way cleaned, and trash removed. While I don't allow Housekeeping into my room daily, over the course of 3weeks, my bed's linen was changed 3 times. Each time at my request. (No matter what day I let HK in.) That is except for the times. Changed it. I would shave in the am... And when I returned, excess shaving cream and hair would still be in the sink... After 'cleaning'.My room had spiders... Dirty dishes would get left. HK would would place dirty dishes in the dishwasher and leave them.I had to complain on Twitter to Marriott Corp and the franchise ownership group. Even after that, my room still wasnt cleaned well. One would think this some $20 a night motel. Finally spoke to franchise team. Was promised the room would be cleaned and that I would receive bonus points. Neither occurred. Oh, and this was after 2 weeks of constant complaining. I didn't even bother complaining. I went to Walmart and purchased chemicals and cleaned it myself.Needed to do laundry while there... The laundry room was FILTHY.At least most of the staff were nice. (At least most of who I encountered.)Management get low marks from.If you need to stay for a night; have at it. I wouldn't stay again for one week let alone one nightIm in NOLA and surrounding areas often. This is one property myself nor my team would be using again. We were there working with a VERY large Healthcare group. We have warned them against this property. I have lots of pics &amp; videosTHE GOOD - the internet worked fine.  MOST of the staff were really nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronnell W, General Manager at TownePlace Suites Laplace, responded to this reviewResponded December 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2017</t>
+  </si>
+  <si>
+    <t>I was extremely disappointed in this property. I have averaged 150-250 nights per yr for the last 15yrs. I am Platinum with Marriott and Diamond with Hilton. I have NEVER had to go through so much to get my room cleaned. My team and I all would have to lodge MULTIPLE complaints just to get a sink cleaned, shower half-way cleaned, and trash removed. While I don't allow Housekeeping into my room daily, over the course of 3weeks, my bed's linen was changed 3 times. Each time at my request. (No matter what day I let HK in.) That is except for the times. Changed it. I would shave in the am... And when I returned, excess shaving cream and hair would still be in the sink... After 'cleaning'.
+My room had spiders... Dirty dishes would get left. HK would would place dirty dishes in the dishwasher and leave them.
+I had to complain on Twitter to Marriott Corp and the franchise ownership group. Even after that, my room still wasnt cleaned well. One would think this some $20 a night motel. Finally spoke to franchise team. Was promised the room would be cleaned and that I would receive bonus points. Neither occurred. Oh, and this was after 2 weeks of constant complaining. I didn't even bother complaining. I went to Walmart and purchased chemicals and cleaned it myself.
+Needed to do laundry while there... The laundry room was FILTHY....I was extremely disappointed in this property. I have averaged 150-250 nights per yr for the last 15yrs. I am Platinum with Marriott and Diamond with Hilton. I have NEVER had to go through so much to get my room cleaned. My team and I all would have to lodge MULTIPLE complaints just to get a sink cleaned, shower half-way cleaned, and trash removed. While I don't allow Housekeeping into my room daily, over the course of 3weeks, my bed's linen was changed 3 times. Each time at my request. (No matter what day I let HK in.) That is except for the times. Changed it. I would shave in the am... And when I returned, excess shaving cream and hair would still be in the sink... After 'cleaning'.My room had spiders... Dirty dishes would get left. HK would would place dirty dishes in the dishwasher and leave them.I had to complain on Twitter to Marriott Corp and the franchise ownership group. Even after that, my room still wasnt cleaned well. One would think this some $20 a night motel. Finally spoke to franchise team. Was promised the room would be cleaned and that I would receive bonus points. Neither occurred. Oh, and this was after 2 weeks of constant complaining. I didn't even bother complaining. I went to Walmart and purchased chemicals and cleaned it myself.Needed to do laundry while there... The laundry room was FILTHY.At least most of the staff were nice. (At least most of who I encountered.)Management get low marks from.If you need to stay for a night; have at it. I wouldn't stay again for one week let alone one nightIm in NOLA and surrounding areas often. This is one property myself nor my team would be using again. We were there working with a VERY large Healthcare group. We have warned them against this property. I have lots of pics &amp; videosTHE GOOD - the internet worked fine.  MOST of the staff were really nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r545303622-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>545303622</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>WARNING! DO NOT STAY AT THIS HOTEL</t>
+  </si>
+  <si>
+    <t>Don’t waste your money! LaPlace offers plenty more options! Don’t be fooled because it’s a newer hotel. The breakfast is the worst! A few other hotels offer the best hot breakfast! Housekeeping take smoke breaks all day and may take a few days to clean a room after a checkout! The staff is not that friendly! TV channel selections are not too good either. You find a few roaches in ur room. Make sure to check your account after you leave they may overcharge you for an extra night as well as go back into your account and charge you more money so they can make their hotel more money! I promise you don’t believe the good reviews! You will be better off at one of the nearby hotels! MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Ronnell W, General Manager at TownePlace Suites Laplace, responded to this reviewResponded December 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2017</t>
+  </si>
+  <si>
+    <t>Don’t waste your money! LaPlace offers plenty more options! Don’t be fooled because it’s a newer hotel. The breakfast is the worst! A few other hotels offer the best hot breakfast! Housekeeping take smoke breaks all day and may take a few days to clean a room after a checkout! The staff is not that friendly! TV channel selections are not too good either. You find a few roaches in ur room. Make sure to check your account after you leave they may overcharge you for an extra night as well as go back into your account and charge you more money so they can make their hotel more money! I promise you don’t believe the good reviews! You will be better off at one of the nearby hotels! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r542096280-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>542096280</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>clean, affordable, but breakfast is horrible</t>
+  </si>
+  <si>
+    <t>The hotel is new.  Facilities are clean.  Prices very reasonable.  The 'free breakfast' is terrible...the eggs were inedible, turkey sausage bland without flavor...we went our and paid for breakfast at local restaurants rather than eat this 'stuff'...but other than the 'free breakfast' it is a nice, clean and reasonable place to stay...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r535975030-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>535975030</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>Clean newer property</t>
+  </si>
+  <si>
+    <t>Spent one night here, nice newer hotel. They upgraded us to a suite, that was great. Room had a bit of an odd smell to it, not overpowering but it was there. The front desk and manager were super. One elevator failed between floors with a housekeeper in it, that must have been scary, not a good sign for a 9 month old property, not the hotels faultMoreShow less</t>
+  </si>
+  <si>
+    <t>Shane L, Front Office Manager at TownePlace Suites Laplace, responded to this reviewResponded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Spent one night here, nice newer hotel. They upgraded us to a suite, that was great. Room had a bit of an odd smell to it, not overpowering but it was there. The front desk and manager were super. One elevator failed between floors with a housekeeper in it, that must have been scary, not a good sign for a 9 month old property, not the hotels faultMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r528483881-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>528483881</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service!!!!</t>
+  </si>
+  <si>
+    <t>From the moment I walked in and saw the smile of the lady I became to know as Erica, my time spent in the Laplace/New Orleans area became I wonderful experience. Hospitality is number 1 at this location. Thanks for the wonderful service of all the staff and management. I will definitely recommend this as a place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2017</t>
+  </si>
+  <si>
+    <t>From the moment I walked in and saw the smile of the lady I became to know as Erica, my time spent in the Laplace/New Orleans area became I wonderful experience. Hospitality is number 1 at this location. Thanks for the wonderful service of all the staff and management. I will definitely recommend this as a place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r526402969-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>526402969</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Nice and quiet</t>
+  </si>
+  <si>
+    <t>Recently my husband and I decided to have a weekend to ourselves.  We enjoyed the nice room and the quiet atmosphere. From the check in at the front desk with Erica N. to check out, all my time was well spent. We will definitely be returning.  Thanks MoreShow less</t>
+  </si>
+  <si>
+    <t>Recently my husband and I decided to have a weekend to ourselves.  We enjoyed the nice room and the quiet atmosphere. From the check in at the front desk with Erica N. to check out, all my time was well spent. We will definitely be returning.  Thanks More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r511786249-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>511786249</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>Amazing experience</t>
+  </si>
+  <si>
+    <t>We stayed for 4 nights here and had a great experience. Very clean hotel with friendly and helpful staff. Our room had a full equipped kitchen and was cleaned every morning. The pool was always clean and enjoyable. The hotel also has has a basketball court, laundry room and grill for guests to use. Breakfast each morning was very filling. Kendra keeps the food hot and the dining area clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2017</t>
+  </si>
+  <si>
+    <t>We stayed for 4 nights here and had a great experience. Very clean hotel with friendly and helpful staff. Our room had a full equipped kitchen and was cleaned every morning. The pool was always clean and enjoyable. The hotel also has has a basketball court, laundry room and grill for guests to use. Breakfast each morning was very filling. Kendra keeps the food hot and the dining area clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r510220842-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>510220842</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Very nice...good value.</t>
+  </si>
+  <si>
+    <t>My daughter, granddaughter and I spent 2 nights here during our recent trip to New Orleans, after spending 2 nights in the French Quarter. Towns Place Suites was less than 1/2 the price we paid downtown, and the 12 mile drive back was not a deterrent. The breakfast area was well equipped, and the woman looking after was so friendly and helpful...I think her name was Brittany, just a gem of an employee. Room was spacious, clean, and the fully equipped kitchen a real bonus. I would be happy to stay there again.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r508440566-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>508440566</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Awesome Hotel</t>
+  </si>
+  <si>
+    <t>We have been at this hotel for the last 4 days very clean staff is very friendly but the best thing is the breakfast every morning was greeted by Ms. Kendra breakfast area was always clean everything was fresh. She was very nice took the time to Ask how we were if we need  anything.   Mr. Shane  at the front desk greeted us asked if  everything was ok.  Plan on coming back in the  near future.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>We have been at this hotel for the last 4 days very clean staff is very friendly but the best thing is the breakfast every morning was greeted by Ms. Kendra breakfast area was always clean everything was fresh. She was very nice took the time to Ask how we were if we need  anything.   Mr. Shane  at the front desk greeted us asked if  everything was ok.  Plan on coming back in the  near future.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r490717038-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>490717038</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>Really nice rooms but could use better ckwaning</t>
+  </si>
+  <si>
+    <t>So the room overall was nice and up to date however if one lifts the flat shower drain you can clearly see how poorly the showers are cleaned. The bed and pillows are comfortable. The walls are pretty thin, so you can hear a lot of the noise in the hallway.Room was decent size. Overall it was a decent stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>So the room overall was nice and up to date however if one lifts the flat shower drain you can clearly see how poorly the showers are cleaned. The bed and pillows are comfortable. The walls are pretty thin, so you can hear a lot of the noise in the hallway.Room was decent size. Overall it was a decent stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r487016394-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>487016394</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Poor service.  Dirty room.</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel two hours after the check-in time.  The room was not ready.  Our family of five had to wait in the lobby until it was ready.  When we finally got to the room, it was not what we had booked.  The one that we booked had two beds and a pull out sofa.  What we received did not have a pull out sofa.  We talked to the clerk at the front desk and was told that that room we had booked didn't exist.  The photos and description for this hotel were from a different hotel of theirs.  The room was obviously cleaned quickly, and we found hair on and under the pillows on both beds.  It would appear that the bedding had not been changed.  They allow pets at the hotel, and our room smelled of animals.  Other than that, the room was nice with a good sized kitchenette.    We talked to the front desk, and asked to see a manager.  We were told that he wasn't available and wouldn't be back until the following week.  We left a phone number for him to call us, but never received a call.  It's now been over a week since our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2017</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel two hours after the check-in time.  The room was not ready.  Our family of five had to wait in the lobby until it was ready.  When we finally got to the room, it was not what we had booked.  The one that we booked had two beds and a pull out sofa.  What we received did not have a pull out sofa.  We talked to the clerk at the front desk and was told that that room we had booked didn't exist.  The photos and description for this hotel were from a different hotel of theirs.  The room was obviously cleaned quickly, and we found hair on and under the pillows on both beds.  It would appear that the bedding had not been changed.  They allow pets at the hotel, and our room smelled of animals.  Other than that, the room was nice with a good sized kitchenette.    We talked to the front desk, and asked to see a manager.  We were told that he wasn't available and wouldn't be back until the following week.  We left a phone number for him to call us, but never received a call.  It's now been over a week since our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r481106598-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>481106598</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>My first time staying in a Towneplace Suites facility. Really liked the decor of the facility as a whole (lobby as well as room. I was surprised that even a regular room had amenities such as a kitchenette including fridge, stove, dishes, sink, garbage disposal, etc. The free breakfast was nice as well. Beds were average comfort.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2017</t>
+  </si>
+  <si>
+    <t>My first time staying in a Towneplace Suites facility. Really liked the decor of the facility as a whole (lobby as well as room. I was surprised that even a regular room had amenities such as a kitchenette including fridge, stove, dishes, sink, garbage disposal, etc. The free breakfast was nice as well. Beds were average comfort.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r480628980-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>480628980</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Home Away From Home! Great place for out of town extended stay or weekend get away!</t>
+  </si>
+  <si>
+    <t>My experience was GREAT! The staff was super friendly, the FREE breakfast was excellent, the rooms were very clean and equipped with more then necessary amenities. It was amazing to have a small but complete kitchen, including stove, midsize fridge with freezer, and dish washer!, along with all the plates, silverware, pots, and pans you could need! The room was equipped with smart tv, very comfortable furniture (especially the bed), and a great work desk! Being that I was in town from New York visiting family and still needed to be able to do work, having that work space and the FREE high speed internet was HUGE! I will definitely be staying here again!!!! I also can't forget to mention the basket ball court, beautiful swimming pool, and the awesome outside kitchen with BBQ pit that was open to Guest use as well! Thank you Towneplace Suites Laplace for great stay!Ill see you guys again soon!A Very Happy Guest!!!!Also wanted to mention i noticed several hearing impaired rooms and handicapped friendly rooms available.... I know a lot of hotels if not all have that, but the fact that i was able to notice the amount of them, i thought was pretty amazing and says a lot about the care of Guest and making sure everyone is comfortable!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2017</t>
+  </si>
+  <si>
+    <t>My experience was GREAT! The staff was super friendly, the FREE breakfast was excellent, the rooms were very clean and equipped with more then necessary amenities. It was amazing to have a small but complete kitchen, including stove, midsize fridge with freezer, and dish washer!, along with all the plates, silverware, pots, and pans you could need! The room was equipped with smart tv, very comfortable furniture (especially the bed), and a great work desk! Being that I was in town from New York visiting family and still needed to be able to do work, having that work space and the FREE high speed internet was HUGE! I will definitely be staying here again!!!! I also can't forget to mention the basket ball court, beautiful swimming pool, and the awesome outside kitchen with BBQ pit that was open to Guest use as well! Thank you Towneplace Suites Laplace for great stay!Ill see you guys again soon!A Very Happy Guest!!!!Also wanted to mention i noticed several hearing impaired rooms and handicapped friendly rooms available.... I know a lot of hotels if not all have that, but the fact that i was able to notice the amount of them, i thought was pretty amazing and says a lot about the care of Guest and making sure everyone is comfortable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r471507173-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>471507173</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>Nice, new hotel</t>
+  </si>
+  <si>
+    <t>We ended up here because prices in downtown New Orleans were a little insane on a Saturday night and we were doing the nearby swamp tour the next day.  An almost new hotel with spacious rooms and good service is what we found.  There isn't much going on nearby outside of the swamp tour, just a few convenience stores, but for a night, it was perfect and quite affordable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>We ended up here because prices in downtown New Orleans were a little insane on a Saturday night and we were doing the nearby swamp tour the next day.  An almost new hotel with spacious rooms and good service is what we found.  There isn't much going on nearby outside of the swamp tour, just a few convenience stores, but for a night, it was perfect and quite affordable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r468981046-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>468981046</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Brand new hotel, good amenities, good service</t>
+  </si>
+  <si>
+    <t>I stayed at this brand new hotel with my son for Spring Break.  We were seeing some plantations and this is the closest Marriott brand to the plantations.  I was staying on points.  They just built this hotel, it is a block or two off I-10, behind a Best Western.  The rooms are large and include a kitchenette and the rear rooms face the swamp so are quieter and better views.The breakfast was really yummy.  Superb coffee, eggs, sausage, English muffins, bread, pastries, cereal, juices, yogurt, and a waffle iron.  The weight room is a bit limited, just two treadmills and one stairmaster and free weights and two benches but it does the job.I highly recommend this if you want to tour the plantations and don't want to spend tons of money in New Orleans.  Basically, I had to book a Category 4 or below and all the hotels in New Orleans are Category 7 or above, so this got around that.  The drive into New Orleans is around 20 minutes.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this brand new hotel with my son for Spring Break.  We were seeing some plantations and this is the closest Marriott brand to the plantations.  I was staying on points.  They just built this hotel, it is a block or two off I-10, behind a Best Western.  The rooms are large and include a kitchenette and the rear rooms face the swamp so are quieter and better views.The breakfast was really yummy.  Superb coffee, eggs, sausage, English muffins, bread, pastries, cereal, juices, yogurt, and a waffle iron.  The weight room is a bit limited, just two treadmills and one stairmaster and free weights and two benches but it does the job.I highly recommend this if you want to tour the plantations and don't want to spend tons of money in New Orleans.  Basically, I had to book a Category 4 or below and all the hotels in New Orleans are Category 7 or above, so this got around that.  The drive into New Orleans is around 20 minutes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r468261511-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>468261511</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Very nice and accommodating!</t>
+  </si>
+  <si>
+    <t>A quick trip to south Louisiana equaled a place needed for one night.  Very quick, easy check-in by courteous staff.  We got a very nice well-appointed room at a good price.  This location has a very easy off-easy-on spot on to the Interstate. Good hot breakfast was pleasing and filling.  Thanks for being there for us!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>A quick trip to south Louisiana equaled a place needed for one night.  Very quick, easy check-in by courteous staff.  We got a very nice well-appointed room at a good price.  This location has a very easy off-easy-on spot on to the Interstate. Good hot breakfast was pleasing and filling.  Thanks for being there for us!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r467192491-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>467192491</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Rooms not Ready for check-in</t>
+  </si>
+  <si>
+    <t>We arrived at 11:00 pm only to hear that the cleaning crew had gone home for the day and that one of our rooms wasn't cleaned. The next day, upon returning for the evening, we discovered a lobby full of guests waiting for rooms to be cleaned so that they can check in.For our family, the front office staff was able to figure something out and get us into some different rooms in about 15 minutes. I don't know how long the guests were waiting the second day. This appears to be a common theme for this hotel. I would expect a Marriott to be better managed.You should call ahead to secure a room on the day of check in to make sure that you're not one of the ones left waiting for hours in the lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2017</t>
+  </si>
+  <si>
+    <t>We arrived at 11:00 pm only to hear that the cleaning crew had gone home for the day and that one of our rooms wasn't cleaned. The next day, upon returning for the evening, we discovered a lobby full of guests waiting for rooms to be cleaned so that they can check in.For our family, the front office staff was able to figure something out and get us into some different rooms in about 15 minutes. I don't know how long the guests were waiting the second day. This appears to be a common theme for this hotel. I would expect a Marriott to be better managed.You should call ahead to secure a room on the day of check in to make sure that you're not one of the ones left waiting for hours in the lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r466830189-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>466830189</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Great Room and Customer Service!</t>
+  </si>
+  <si>
+    <t>This is a nice place to stay.  It's roomy and the staff was friendly and courteous.  I would recommend Towneplace Suites to anyone wanting to stay in a home-like environment.  The bed was super comfortable, as was the couch in the main room.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a nice place to stay.  It's roomy and the staff was friendly and courteous.  I would recommend Towneplace Suites to anyone wanting to stay in a home-like environment.  The bed was super comfortable, as was the couch in the main room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r457818041-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>457818041</t>
+  </si>
+  <si>
+    <t>02/07/2017</t>
+  </si>
+  <si>
+    <t>Great room, very poor breakfast</t>
+  </si>
+  <si>
+    <t>The ladies at the front desk were always friendly. We found the room very comfortable, with a comfortable couch, and having the full kitchen and large fridge was great. There are no instructions with the stove, so in case you’re wondering: You have to turn on the timer on the wall above it, or it doesn’t turn on. The bed was somewhat comfortable, but on the firm side for me. The TV is set up so that you can watch your own Netflix or Hulu account on it. The bathroom was great, with lots of drawers and shelves to put things. The walls are quite thin, however, and we were kept awake for a long time one night while someone had a party next door. The hotel gym is nice but very basic: Two treadmills, an elliptical, 2 benches, and a set of dumbbells. They have plenty of room in there, so  they should add more equipment to fill it out. The big thing I found lacking was the breakfast. The eggs were the same every day: Preformed patty eggs, like you would find in a fast food place, which tasted more like chemicals than like eggs. They had fast-food type sausage patties along with it. They also had old-fashioned cooked oatmeal, but it was only fresh and edible on 2 out of the 5 days that we stayed. On the other days, it was either made without enough water,...The ladies at the front desk were always friendly. We found the room very comfortable, with a comfortable couch, and having the full kitchen and large fridge was great. There are no instructions with the stove, so in case you’re wondering: You have to turn on the timer on the wall above it, or it doesn’t turn on. The bed was somewhat comfortable, but on the firm side for me. The TV is set up so that you can watch your own Netflix or Hulu account on it. The bathroom was great, with lots of drawers and shelves to put things. The walls are quite thin, however, and we were kept awake for a long time one night while someone had a party next door. The hotel gym is nice but very basic: Two treadmills, an elliptical, 2 benches, and a set of dumbbells. They have plenty of room in there, so  they should add more equipment to fill it out. The big thing I found lacking was the breakfast. The eggs were the same every day: Preformed patty eggs, like you would find in a fast food place, which tasted more like chemicals than like eggs. They had fast-food type sausage patties along with it. They also had old-fashioned cooked oatmeal, but it was only fresh and edible on 2 out of the 5 days that we stayed. On the other days, it was either made without enough water, or we suspect leftover from the day before, and was so dried out and gummy that you could barely scrape it out of the vat. In fact, it fell into my bowl with such a large thud that the man next to me was laughing (and I gave up and threw it away). When someone told the woman caring for the breakfast area, she said it was “fine when she made it." They also had a waffle machine, and that was the extent of the hot food. Additionally, there were bread/bagels, Activa yogurts full of sugar, dry cereal, hard-boiled eggs, fresh oranges and bananas, milk and juice. I like to eat healthy, real food, so I found it quite challenging to find something to eat each morning. Next time, we will purchase eggs at the local Winn-Dixie and cook in the room. So while the room is nice, I think the breakfast could be much better in quality for the price of the rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2017</t>
+  </si>
+  <si>
+    <t>The ladies at the front desk were always friendly. We found the room very comfortable, with a comfortable couch, and having the full kitchen and large fridge was great. There are no instructions with the stove, so in case you’re wondering: You have to turn on the timer on the wall above it, or it doesn’t turn on. The bed was somewhat comfortable, but on the firm side for me. The TV is set up so that you can watch your own Netflix or Hulu account on it. The bathroom was great, with lots of drawers and shelves to put things. The walls are quite thin, however, and we were kept awake for a long time one night while someone had a party next door. The hotel gym is nice but very basic: Two treadmills, an elliptical, 2 benches, and a set of dumbbells. They have plenty of room in there, so  they should add more equipment to fill it out. The big thing I found lacking was the breakfast. The eggs were the same every day: Preformed patty eggs, like you would find in a fast food place, which tasted more like chemicals than like eggs. They had fast-food type sausage patties along with it. They also had old-fashioned cooked oatmeal, but it was only fresh and edible on 2 out of the 5 days that we stayed. On the other days, it was either made without enough water,...The ladies at the front desk were always friendly. We found the room very comfortable, with a comfortable couch, and having the full kitchen and large fridge was great. There are no instructions with the stove, so in case you’re wondering: You have to turn on the timer on the wall above it, or it doesn’t turn on. The bed was somewhat comfortable, but on the firm side for me. The TV is set up so that you can watch your own Netflix or Hulu account on it. The bathroom was great, with lots of drawers and shelves to put things. The walls are quite thin, however, and we were kept awake for a long time one night while someone had a party next door. The hotel gym is nice but very basic: Two treadmills, an elliptical, 2 benches, and a set of dumbbells. They have plenty of room in there, so  they should add more equipment to fill it out. The big thing I found lacking was the breakfast. The eggs were the same every day: Preformed patty eggs, like you would find in a fast food place, which tasted more like chemicals than like eggs. They had fast-food type sausage patties along with it. They also had old-fashioned cooked oatmeal, but it was only fresh and edible on 2 out of the 5 days that we stayed. On the other days, it was either made without enough water, or we suspect leftover from the day before, and was so dried out and gummy that you could barely scrape it out of the vat. In fact, it fell into my bowl with such a large thud that the man next to me was laughing (and I gave up and threw it away). When someone told the woman caring for the breakfast area, she said it was “fine when she made it." They also had a waffle machine, and that was the extent of the hot food. Additionally, there were bread/bagels, Activa yogurts full of sugar, dry cereal, hard-boiled eggs, fresh oranges and bananas, milk and juice. I like to eat healthy, real food, so I found it quite challenging to find something to eat each morning. Next time, we will purchase eggs at the local Winn-Dixie and cook in the room. So while the room is nice, I think the breakfast could be much better in quality for the price of the rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d10632683-r454099673-TownePlace_Suites_Laplace-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>454099673</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t>Marginal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a very new place with a surprising array of problems.Had one day of no hot water and one day of no cold water. Yes, all the water in the room was hot. Today cold again.The window leaked during rains.Found it incredibly difficult to get shampoo and towels replaced.Breakfast was absolutely terrible-precooked fried eggs,turkey sausage, waffles, and cereal. Coffee was empty occasionally.For the price, this place is a bad choice. </t>
+  </si>
+  <si>
+    <t>January 2017</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -555,6 +1201,1711 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>62</v>
+      </c>
+      <c r="X6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>93</v>
+      </c>
+      <c r="X10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" t="s">
+        <v>106</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" t="s">
+        <v>101</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>107</v>
+      </c>
+      <c r="X12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13" t="s">
+        <v>116</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>117</v>
+      </c>
+      <c r="X13" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>115</v>
+      </c>
+      <c r="O14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>117</v>
+      </c>
+      <c r="X14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>132</v>
+      </c>
+      <c r="X15" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>131</v>
+      </c>
+      <c r="O17" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>146</v>
+      </c>
+      <c r="X17" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>155</v>
+      </c>
+      <c r="X18" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>140</v>
+      </c>
+      <c r="O19" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>163</v>
+      </c>
+      <c r="X19" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>172</v>
+      </c>
+      <c r="X20" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>171</v>
+      </c>
+      <c r="O21" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>180</v>
+      </c>
+      <c r="X21" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J22" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" t="s">
+        <v>186</v>
+      </c>
+      <c r="L22" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>188</v>
+      </c>
+      <c r="X22" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>192</v>
+      </c>
+      <c r="J23" t="s">
+        <v>193</v>
+      </c>
+      <c r="K23" t="s">
+        <v>194</v>
+      </c>
+      <c r="L23" t="s">
+        <v>195</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>196</v>
+      </c>
+      <c r="O23" t="s">
+        <v>47</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>197</v>
+      </c>
+      <c r="X23" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L24" t="s">
+        <v>204</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>196</v>
+      </c>
+      <c r="O24" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>205</v>
+      </c>
+      <c r="X24" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>209</v>
+      </c>
+      <c r="J25" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>196</v>
+      </c>
+      <c r="O25" t="s">
+        <v>47</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>213</v>
+      </c>
+      <c r="X25" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>217</v>
+      </c>
+      <c r="J26" t="s">
+        <v>218</v>
+      </c>
+      <c r="K26" t="s">
+        <v>219</v>
+      </c>
+      <c r="L26" t="s">
+        <v>220</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O26" t="s">
+        <v>101</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>213</v>
+      </c>
+      <c r="X26" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>223</v>
+      </c>
+      <c r="J27" t="s">
+        <v>224</v>
+      </c>
+      <c r="K27" t="s">
+        <v>225</v>
+      </c>
+      <c r="L27" t="s">
+        <v>226</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>227</v>
+      </c>
+      <c r="O27" t="s">
+        <v>47</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>228</v>
+      </c>
+      <c r="X27" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65344</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>231</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>232</v>
+      </c>
+      <c r="J28" t="s">
+        <v>233</v>
+      </c>
+      <c r="K28" t="s">
+        <v>234</v>
+      </c>
+      <c r="L28" t="s">
+        <v>235</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>236</v>
+      </c>
+      <c r="O28" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -577,31 +2928,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>238</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>243</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2">
@@ -609,31 +2960,31 @@
         <v>65344</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>247</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="E2" t="n">
         <v>70068</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
